--- a/Book1(AutoRecovered).xlsx
+++ b/Book1(AutoRecovered).xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wildm\Desktop\Class\Greenwich\1631\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BBD767FB-D5B5-43C6-8638-A98FF99D16FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C474410F-DE66-4EF8-8886-A0BF1616A596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="375" yWindow="825" windowWidth="18885" windowHeight="12960" xr2:uid="{EF20F349-451C-4090-81A1-88E19279B90C}"/>
+    <workbookView xWindow="4545" yWindow="255" windowWidth="18885" windowHeight="12960" xr2:uid="{EF20F349-451C-4090-81A1-88E19279B90C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="117">
   <si>
     <t>Variable</t>
   </si>
@@ -479,12 +478,27 @@
   <si>
     <t>Integration with third party payment system</t>
   </si>
+  <si>
+    <t>Organizational</t>
+  </si>
+  <si>
+    <t>Saved cost of staff</t>
+  </si>
+  <si>
+    <t>More insightful decision from automated data reporting</t>
+  </si>
+  <si>
+    <t>More effective accounting due to accurate financial reports generated automatically</t>
+  </si>
+  <si>
+    <t>Decreased human error as the system is automated and online</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -503,6 +517,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -528,7 +550,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -551,92 +573,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFA5A5A5"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FFA5A5A5"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFA5A5A5"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FFA5A5A5"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFA5A5A5"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFA5A5A5"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFA5A5A5"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFA5A5A5"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFC9C9C9"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFC9C9C9"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFC9C9C9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFC9C9C9"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFC9C9C9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFC9C9C9"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFC9C9C9"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFC9C9C9"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -650,34 +591,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -994,16 +932,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC4BB3DF-2980-405D-9C69-31B58F924F45}">
-  <dimension ref="D4:I100"/>
+  <dimension ref="D4:I96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C74" workbookViewId="0">
-      <selection activeCell="D92" sqref="D92"/>
+    <sheetView tabSelected="1" topLeftCell="C72" workbookViewId="0">
+      <selection activeCell="D74" sqref="D74:I96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37.5703125" customWidth="1"/>
+    <col min="4" max="4" width="48.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
     <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -1696,20 +1634,19 @@
         <v>47</v>
       </c>
     </row>
-    <row r="73" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="74" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D74" s="5"/>
-      <c r="E74" s="6"/>
-      <c r="F74" s="11" t="s">
+      <c r="E74" s="5"/>
+      <c r="F74" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="G74" s="11"/>
-      <c r="H74" s="11" t="s">
+      <c r="G74" s="6"/>
+      <c r="H74" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="I74" s="12"/>
-    </row>
-    <row r="75" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I74" s="6"/>
+    </row>
+    <row r="75" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D75" s="7" t="s">
         <v>96</v>
       </c>
@@ -1729,7 +1666,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="76" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D76" s="9" t="s">
         <v>100</v>
       </c>
@@ -1739,115 +1676,131 @@
       <c r="H76" s="10"/>
       <c r="I76" s="10"/>
     </row>
-    <row r="77" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D77" s="7" t="s">
         <v>107</v>
       </c>
       <c r="E77" s="8">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F77" s="8">
         <v>4</v>
       </c>
       <c r="G77" s="10">
         <f>F77*E77</f>
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H77" s="8">
         <v>2</v>
       </c>
       <c r="I77" s="10">
-        <f t="shared" ref="I77:I86" si="0">H77*E77</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="78" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" ref="I77:I88" si="0">H77*E77</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D78" s="9" t="s">
         <v>108</v>
       </c>
       <c r="E78" s="10">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F78" s="10">
         <v>4</v>
       </c>
       <c r="G78" s="10">
-        <f t="shared" ref="G78:G86" si="1">F78*E78</f>
-        <v>40</v>
+        <f t="shared" ref="G78:G88" si="1">F78*E78</f>
+        <v>28</v>
       </c>
       <c r="H78" s="10">
         <v>3</v>
       </c>
       <c r="I78" s="10">
         <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="79" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="79" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D79" s="7" t="s">
         <v>109</v>
       </c>
       <c r="E79" s="8">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F79" s="8">
         <v>4</v>
       </c>
       <c r="G79" s="10">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="H79" s="8">
         <v>3</v>
       </c>
       <c r="I79" s="10">
         <f>H79*E79</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="80" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D80" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="80" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D80" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="E80" s="14">
-        <v>10</v>
-      </c>
-      <c r="F80" s="14">
+      <c r="E80" s="12">
+        <v>9</v>
+      </c>
+      <c r="F80" s="12">
         <v>5</v>
       </c>
       <c r="G80" s="10">
         <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="H80" s="14">
+        <v>45</v>
+      </c>
+      <c r="H80" s="12">
         <v>5</v>
       </c>
       <c r="I80" s="10">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="81" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="81" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D81" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E81" s="8">
+        <v>7</v>
+      </c>
+      <c r="F81" s="1">
+        <v>5</v>
+      </c>
       <c r="G81" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="H81" s="1">
+        <v>5</v>
       </c>
       <c r="I81" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="82" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
       <c r="G82" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="H82" s="1"/>
       <c r="I82" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D83" s="9" t="s">
         <v>101</v>
       </c>
@@ -1863,100 +1816,257 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D84" s="7" t="s">
         <v>102</v>
       </c>
       <c r="E84" s="8">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F84" s="8">
         <v>3</v>
       </c>
       <c r="G84" s="10">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="H84" s="8">
         <v>2</v>
       </c>
       <c r="I84" s="10">
         <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="85" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D85" s="9" t="s">
         <v>103</v>
       </c>
       <c r="E85" s="10">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F85" s="10">
         <v>4</v>
       </c>
       <c r="G85" s="10">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="H85" s="10">
         <v>5</v>
       </c>
       <c r="I85" s="10">
         <f t="shared" si="0"/>
-        <v>125</v>
+        <v>50</v>
       </c>
     </row>
     <row r="86" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D86" t="s">
+      <c r="D86" s="1" t="s">
         <v>104</v>
       </c>
+      <c r="E86" s="1">
+        <v>10</v>
+      </c>
+      <c r="F86" s="1">
+        <v>4</v>
+      </c>
+      <c r="G86" s="10">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="H86" s="1">
+        <v>4</v>
+      </c>
+      <c r="I86" s="10">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
     </row>
     <row r="87" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D87" t="s">
+      <c r="D87" s="1" t="s">
         <v>105</v>
       </c>
+      <c r="E87" s="1">
+        <v>7</v>
+      </c>
+      <c r="F87" s="1">
+        <v>4</v>
+      </c>
+      <c r="G87" s="10">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="H87" s="1">
+        <v>4</v>
+      </c>
+      <c r="I87" s="10">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
     </row>
     <row r="88" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D88" t="s">
+      <c r="D88" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="91" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D91" s="7" t="s">
+      <c r="E88" s="1">
+        <v>4</v>
+      </c>
+      <c r="F88" s="1">
+        <v>3</v>
+      </c>
+      <c r="G88" s="10">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="H88" s="1">
+        <v>5</v>
+      </c>
+      <c r="I88" s="10">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="89" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D89" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="E91" s="8">
+      <c r="E89" s="8">
+        <v>10</v>
+      </c>
+      <c r="F89" s="8">
+        <v>5</v>
+      </c>
+      <c r="G89" s="10">
+        <f>F89*E89</f>
+        <v>50</v>
+      </c>
+      <c r="H89" s="8">
+        <v>3</v>
+      </c>
+      <c r="I89" s="10">
+        <f>H89*E89</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="90" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="10">
+        <f t="shared" ref="G90:G94" si="2">F90*E90</f>
+        <v>0</v>
+      </c>
+      <c r="H90" s="1"/>
+      <c r="I90" s="10">
+        <f t="shared" ref="I90:I94" si="3">H90*E90</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D91" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H91" s="1"/>
+      <c r="I91" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D92" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E92" s="1">
+        <v>7</v>
+      </c>
+      <c r="F92" s="1">
+        <v>3</v>
+      </c>
+      <c r="G92" s="10">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="H92" s="1">
+        <v>5</v>
+      </c>
+      <c r="I92" s="10">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="93" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D93" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E93" s="1">
+        <v>5</v>
+      </c>
+      <c r="F93" s="1">
+        <v>3</v>
+      </c>
+      <c r="G93" s="10">
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="F91" s="8">
+      <c r="H93" s="1">
         <v>5</v>
       </c>
-      <c r="G91" s="10">
-        <f>F91*E91</f>
-        <v>75</v>
-      </c>
-      <c r="H91" s="8">
-        <v>3</v>
-      </c>
-      <c r="I91" s="10">
-        <f>H91*E91</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="100" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E100" s="10">
+      <c r="I93" s="10">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="94" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D94" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E94" s="1">
+        <v>5</v>
+      </c>
+      <c r="F94" s="1">
+        <v>4</v>
+      </c>
+      <c r="G94" s="10">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="H94" s="1">
+        <v>4</v>
+      </c>
+      <c r="I94" s="10">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="95" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1"/>
+      <c r="H95" s="1"/>
+      <c r="I95" s="1"/>
+    </row>
+    <row r="96" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D96" s="1"/>
+      <c r="E96" s="10">
+        <f>SUM(E77:E95)</f>
         <v>100</v>
       </c>
-      <c r="F100" s="10"/>
-      <c r="G100" s="10">
-        <f>SUM(G77:G91)</f>
-        <v>405</v>
-      </c>
-      <c r="H100" s="10"/>
-      <c r="I100" s="10">
-        <f>SUM(I77:I91)</f>
-        <v>340</v>
+      <c r="F96" s="10"/>
+      <c r="G96" s="10">
+        <f>SUM(G77:G90)</f>
+        <v>349</v>
+      </c>
+      <c r="H96" s="10"/>
+      <c r="I96" s="10">
+        <f>SUM(I77:I90)</f>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
